--- a/invariance_chi_square_tests.xlsx
+++ b/invariance_chi_square_tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-29460" yWindow="0" windowWidth="27480" windowHeight="19340" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="180" windowWidth="27480" windowHeight="19340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="D5:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
